--- a/exercise_learned_summary.xlsx
+++ b/exercise_learned_summary.xlsx
@@ -740,7 +740,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>leg_raise</t>
+          <t>leg_raises</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
